--- a/biology/Zoologie/Dolbina/Dolbina.xlsx
+++ b/biology/Zoologie/Dolbina/Dolbina.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Dolbina  regroupe des insectes lépidoptères de la famille des Sphingidae, de la sous-famille des Smerinthinae, et de la tribu des Sphingulini.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les imagos ont des antennes courtes, fines et en forme de crochet, finement velues, à la base basale plus longue que sur l'apex. Le pilifer, une structure dérivée du labrum, est réduit à un nodule qui porte quelques soies et écailles. Seule Dolbina inexacta n'a pas d'écailles sur elle. Le proboscis est régressé, tout comme les palpes. Les tibias n'ont pas d'épines, mais sur les ailes postérieures, deux paires d'éperons fortement réduits sont reconnaissables.
 </t>
@@ -542,7 +556,9 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Répartition
 Le répartition du genre est mondiale; en Europe seule l'espèce Dolbina elegans est représentée.
@@ -574,13 +590,12 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Le genre a été décrit par l'entomologiste allemand Otto Staudinger, en 1877[1].
-L'espèce type est Dolbina tancrei.
-Synonymie
-Dolbinopsis Rothschild &amp; Jordan, 1903
-Elegodolba Eitschberger &amp; Zolotuhin, 1997</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Le genre a été décrit par l'entomologiste allemand Otto Staudinger, en 1877.
+L'espèce type est Dolbina tancrei.</t>
         </is>
       </c>
     </row>
@@ -605,10 +620,49 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Synonymie</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Dolbinopsis Rothschild &amp; Jordan, 1903
+Elegodolba Eitschberger &amp; Zolotuhin, 1997</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Dolbina</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dolbina</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Dolbina borneensis - Brechlin, 2009
